--- a/biology/Zoologie/Damier_du_chèvrefeuille/Damier_du_chèvrefeuille.xlsx
+++ b/biology/Zoologie/Damier_du_chèvrefeuille/Damier_du_chèvrefeuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Damier_du_ch%C3%A8vrefeuille</t>
+          <t>Damier_du_chèvrefeuille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas intermedia
 Le Damier du chèvrefeuille (Euphydryas intermedia) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Damier_du_ch%C3%A8vrefeuille</t>
+          <t>Damier_du_chèvrefeuille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,48 +524,121 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas intermedia (Ménétries, 1859)
-L'espèce est parfois mise en synonymie avec Euphydryas ichnea (Boisduval, [1833]) (= Melitaea ichnea Boisduval, [1833])[1]. 
-Noms vernaculaires
-en français : le Damier du chèvrefeuille, le Damier rouge
-en anglais : Asian Fritillary
-Sous-espèces
-Dans l'hypothèse de la synonymie avec Euphydryas ichnea :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas intermedia (Ménétries, 1859)
+L'espèce est parfois mise en synonymie avec Euphydryas ichnea (Boisduval, ) (= Melitaea ichnea Boisduval, ). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en français : le Damier du chèvrefeuille, le Damier rouge
+en anglais : Asian Fritillary</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans l'hypothèse de la synonymie avec Euphydryas ichnea :
 Euphydryas ichnea ichnea – dans le sud de la Sibérie
 Euphydryas ichnea altaiana (Wnukowsky, 1929) – dans l'Altaï
 Euphydryas ichnea konumensis (Matsumura, 1927)
 Euphydryas ichnea mongolica (Staudinger, 1892)
-Euphydryas ichnea wolfensbergeri (Frey, 1880) – dans les Alpes[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Euphydryas ichnea wolfensbergeri (Frey, 1880) – dans les Alpes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dessus de l'imago présente un motif à damiers rouge brique, orange pâle et blanchâtres, délimités par les nervures et des lignes transversales sombres. 
 Il ressemble à d'autres espèces du genre Euphydryas, notamment à Euphydryas maturna et aux femelles d’Euphydryas cynthia.
@@ -561,73 +646,185 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en une génération bisannuelle de fin juin à début août[2]. 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une génération bisannuelle de fin juin à début août. 
 Le développement requiert en effet deux hivernations à l'état de chenille.
-Plantes hôtes
-La plante hôte de la chenille est Lonicera caerulea[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille est Lonicera caerulea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Europe dans les Alpes (sous-espèce wolfensbergeri), et en Asie de la Sibérie à l'Altaï[1],[2].
-En France, elle est présente dans quatre départements des Alpes, où elle est considérée comme localisée et peu abondante : la Savoie, la Haute-Savoie, l'Isère et les Hautes-Alpes[3].
-Biotope
-L'espèce affectionne les lisières et les bois clairs de l'étage subalpin.
-Protection
-L'espèce n'a pas de statut de protection particulier en France.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Europe dans les Alpes (sous-espèce wolfensbergeri), et en Asie de la Sibérie à l'Altaï,.
+En France, elle est présente dans quatre départements des Alpes, où elle est considérée comme localisée et peu abondante : la Savoie, la Haute-Savoie, l'Isère et les Hautes-Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce affectionne les lisières et les bois clairs de l'étage subalpin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Damier_du_chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Damier_du_ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France.
 </t>
         </is>
       </c>
